--- a/TestData/TestData_NOP.xlsx
+++ b/TestData/TestData_NOP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FAEEC0-8075-4882-8F0C-1F1710E00A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A11F40-8D5B-4590-B328-3CAFB5D9407A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_001_NopLogin" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>KEY</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>admin@yourstore.com</t>
+  </si>
+  <si>
+    <t>PROJECT_SVBU_WRONG_PROJ</t>
+  </si>
+  <si>
+    <t>SVBU_WRONG_REPOCENTRE</t>
   </si>
 </sst>
 </file>
@@ -421,19 +427,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -449,7 +457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -457,7 +465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -465,23 +473,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="str">
+        <f>LOWER(F5)</f>
+        <v>project_svbu_wrong_proj</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="str">
+        <f>LOWER(F6)</f>
+        <v>svbu_wrong_repocentre</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
